--- a/data/trans_dic/P64D$otros_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P64D$otros_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.002293236415591652</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.006978133482900038</v>
+        <v>0.006978133482900037</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.002036593601583153</v>
+        <v>0.00200975808878329</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.001963082291780597</v>
+        <v>0.002041388671952929</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03139555702501742</v>
+        <v>0.03052993773661944</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01148611211843682</v>
+        <v>0.01155149957551622</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0182957984666366</v>
+        <v>0.02162703874105372</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.002491340497985191</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01072922577034892</v>
+        <v>0.01072922577034893</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007575480176475241</v>
+        <v>0.007321219108302675</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005337461183655036</v>
+        <v>0.005673463863322676</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03158625780990605</v>
+        <v>0.02954116384086115</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01220053074994338</v>
+        <v>0.01585443180662132</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01956437631975674</v>
+        <v>0.01950012790711284</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.005482184126729539</v>
+        <v>0.005482184126729538</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.01091812242460887</v>
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.00224277481358699</v>
+        <v>0.0023121866790827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002930070977123547</v>
+        <v>0.003289322130698652</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02045429722662143</v>
+        <v>0.01985098578132581</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02727256432320687</v>
+        <v>0.02890974416397808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01737430164770567</v>
+        <v>0.01869382397156357</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002055019028709189</v>
+        <v>0.002224175668256116</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006305580166306119</v>
+        <v>0.006724959904145771</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.005851004783377544</v>
+        <v>0.005402885738632962</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01976369569378876</v>
+        <v>0.02030486669318166</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03834224786814729</v>
+        <v>0.04051822624644913</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02233404386401076</v>
+        <v>0.02265371827336145</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.006455447029263465</v>
+        <v>0.006723814262110123</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.004341245494498652</v>
+        <v>0.004624895301116283</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.006725425552698428</v>
+        <v>0.00671084512439418</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0163549431985714</v>
+        <v>0.01707535210493391</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0156282319570901</v>
+        <v>0.01725153834037192</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01375845674012851</v>
+        <v>0.01415036658896434</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1261</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>11481</v>
+        <v>11164</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>3176</v>
+        <v>3194</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>11750</v>
+        <v>13889</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>4703</v>
+        <v>4545</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5669</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19611</v>
+        <v>18341</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5384</v>
+        <v>6997</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20781</v>
+        <v>20713</v>
       </c>
     </row>
     <row r="12">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2181</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8435</v>
+        <v>8186</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9058</v>
+        <v>9602</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12935</v>
+        <v>13918</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1047</v>
+        <v>1133</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2785</v>
+        <v>2970</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5564</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10065</v>
+        <v>10341</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16932</v>
+        <v>17893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21237</v>
+        <v>21541</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>12318</v>
+        <v>12830</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6475</v>
+        <v>6898</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>22865</v>
+        <v>22815</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>31208</v>
+        <v>32583</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>23311</v>
+        <v>25732</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>46776</v>
+        <v>48108</v>
       </c>
     </row>
     <row r="24">
